--- a/HRM/api/Resources/Template/SalaryReport/7_2_15_MonthlyUnionDuesSummary/Download.xlsx
+++ b/HRM/api/Resources/Template/SalaryReport/7_2_15_MonthlyUnionDuesSummary/Download.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>部門</t>
-  </si>
-  <si>
-    <t>Department Code</t>
   </si>
   <si>
     <t>Department Name</t>
@@ -106,19 +103,25 @@
     <t>4.5% Medical Insurance Fee</t>
   </si>
   <si>
-    <t>Group Sum(UnionDues)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group Sum(Insurance)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group Sum(TotalAmount)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>&amp;=result.Factory</t>
+  </si>
+  <si>
+    <t>&amp;=result.Department</t>
+  </si>
+  <si>
+    <t>&amp;=result.DepartmentName</t>
+  </si>
+  <si>
+    <t>&amp;=result.Union_fee</t>
+  </si>
+  <si>
+    <t>&amp;=result.Medical_Insurance_Fee</t>
+  </si>
+  <si>
+    <t>&amp;=result.TotalAmount</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -275,6 +278,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -577,24 +582,24 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31.5">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="4"/>
       <c r="H2" s="3"/>
@@ -610,84 +615,90 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="16.5">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="14" customFormat="1" ht="15.75">
       <c r="A7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="A8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
